--- a/pheno_data/pheno1.xlsx
+++ b/pheno_data/pheno1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarmedina/Documents/git/Roza_2019/pheno_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADDEA69-8078-4845-8CFE-2AA3E277BF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A6739E-DD30-2340-923B-7C546A484F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A404CB50-BABB-BE4E-ADEF-9AF08EC0468B}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{A404CB50-BABB-BE4E-ADEF-9AF08EC0468B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat1_H2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="40">
   <si>
     <t>Variable</t>
   </si>
@@ -138,6 +140,24 @@
   </si>
   <si>
     <t>gen</t>
+  </si>
+  <si>
+    <t>ST0_sep_21</t>
+  </si>
+  <si>
+    <t>ST0_aug_22</t>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>W_outliers</t>
+  </si>
+  <si>
+    <t>No_outliers</t>
   </si>
 </sst>
 </file>
@@ -169,7 +189,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,6 +256,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22763A0B-B78E-9443-ADB6-E17B472BA59B}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,4 +1239,786 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105D377E-4E50-8E4A-8F9A-9968D798C7C3}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>436</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1308</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1311</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1303</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>62.4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>310</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1301</v>
+      </c>
+      <c r="F5" s="4">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4">
+        <v>350</v>
+      </c>
+      <c r="I5" s="1">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1303</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>49.33</v>
+      </c>
+      <c r="H6" s="4">
+        <v>426</v>
+      </c>
+      <c r="I6" s="1">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1303</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41.33</v>
+      </c>
+      <c r="H7" s="4">
+        <v>320</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1303</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9.67</v>
+      </c>
+      <c r="H8" s="4">
+        <v>124</v>
+      </c>
+      <c r="I8" s="1">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1301</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4">
+        <v>208</v>
+      </c>
+      <c r="I9" s="1">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1294</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G10" s="4">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4">
+        <v>98</v>
+      </c>
+      <c r="I10" s="1">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1299</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4">
+        <v>150</v>
+      </c>
+      <c r="I11" s="1">
+        <v>89</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1298</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>24.33</v>
+      </c>
+      <c r="H12" s="4">
+        <v>246</v>
+      </c>
+      <c r="I12" s="1">
+        <v>76</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1298</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7">
+        <v>219</v>
+      </c>
+      <c r="I13" s="6">
+        <v>111</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1294</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="G14" s="4">
+        <v>57.33</v>
+      </c>
+      <c r="H14" s="4">
+        <v>400</v>
+      </c>
+      <c r="I14" s="1">
+        <v>86</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1293</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>32</v>
+      </c>
+      <c r="H15" s="4">
+        <v>252</v>
+      </c>
+      <c r="I15" s="1">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1290</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="G16" s="7">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>255</v>
+      </c>
+      <c r="I16" s="6">
+        <v>100</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1291</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G17" s="4">
+        <v>32.67</v>
+      </c>
+      <c r="H17" s="4">
+        <v>195</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1303</v>
+      </c>
+      <c r="F18" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>228</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1230</v>
+      </c>
+      <c r="I18" s="1">
+        <v>82</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1302</v>
+      </c>
+      <c r="F19" s="4">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4">
+        <v>110.41</v>
+      </c>
+      <c r="H19" s="4">
+        <v>750</v>
+      </c>
+      <c r="I19" s="1">
+        <v>70</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1295</v>
+      </c>
+      <c r="F20" s="5">
+        <v>16</v>
+      </c>
+      <c r="G20" s="5">
+        <v>135.66999999999999</v>
+      </c>
+      <c r="H20" s="5">
+        <v>841</v>
+      </c>
+      <c r="I20" s="3">
+        <v>83</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665F73B5-8C35-1149-BE9B-28945CC8D48D}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.2965064</v>
+      </c>
+      <c r="C3" s="10">
+        <v>81.043390000000002</v>
+      </c>
+      <c r="D3" s="10">
+        <v>8.3327749999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10.35407</v>
+      </c>
+      <c r="C4" s="11">
+        <v>100.30329999999999</v>
+      </c>
+      <c r="D4" s="11">
+        <v>25.57573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C8" s="10">
+        <v>21.677</v>
+      </c>
+      <c r="D8" s="10">
+        <v>8.1026640000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="C9" s="11">
+        <v>89.206000000000003</v>
+      </c>
+      <c r="D9" s="11">
+        <v>17.910409999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pheno_data/pheno1.xlsx
+++ b/pheno_data/pheno1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarmedina/Documents/git/Roza_2019/pheno_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A6739E-DD30-2340-923B-7C546A484F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AF65E3-7F6E-8940-A218-7C75F943F169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{A404CB50-BABB-BE4E-ADEF-9AF08EC0468B}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A404CB50-BABB-BE4E-ADEF-9AF08EC0468B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat1_H2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="40">
   <si>
     <t>Variable</t>
   </si>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +272,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,15 +594,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22763A0B-B78E-9443-ADB6-E17B472BA59B}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,8 +633,29 @@
       <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -659,8 +686,29 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1303</v>
+      </c>
+      <c r="P2" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>62.4</v>
+      </c>
+      <c r="R2" s="4">
+        <v>310</v>
+      </c>
+      <c r="S2" s="1">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -691,8 +739,29 @@
       <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1301</v>
+      </c>
+      <c r="P3" s="4">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>61</v>
+      </c>
+      <c r="R3" s="4">
+        <v>350</v>
+      </c>
+      <c r="S3" s="1">
+        <v>65</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -723,8 +792,29 @@
       <c r="J4" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1303</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>49.33</v>
+      </c>
+      <c r="R4" s="4">
+        <v>426</v>
+      </c>
+      <c r="S4" s="1">
+        <v>52</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -755,8 +845,29 @@
       <c r="J5" s="1">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1303</v>
+      </c>
+      <c r="P5" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>41.33</v>
+      </c>
+      <c r="R5" s="4">
+        <v>320</v>
+      </c>
+      <c r="S5" s="1">
+        <v>44</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -787,8 +898,29 @@
       <c r="J6" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1303</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>9.67</v>
+      </c>
+      <c r="R6" s="4">
+        <v>124</v>
+      </c>
+      <c r="S6" s="1">
+        <v>51</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -819,8 +951,29 @@
       <c r="J7" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1301</v>
+      </c>
+      <c r="P7" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>40</v>
+      </c>
+      <c r="R7" s="4">
+        <v>208</v>
+      </c>
+      <c r="S7" s="1">
+        <v>57</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -851,8 +1004,29 @@
       <c r="J8" s="1">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1294</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>13</v>
+      </c>
+      <c r="R8" s="4">
+        <v>98</v>
+      </c>
+      <c r="S8" s="1">
+        <v>65</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -883,8 +1057,29 @@
       <c r="J9" s="1">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1299</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>24</v>
+      </c>
+      <c r="R9" s="4">
+        <v>150</v>
+      </c>
+      <c r="S9" s="1">
+        <v>89</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -915,8 +1110,29 @@
       <c r="J10" s="1">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1298</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>24.33</v>
+      </c>
+      <c r="R10" s="4">
+        <v>246</v>
+      </c>
+      <c r="S10" s="1">
+        <v>76</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -947,8 +1163,29 @@
       <c r="J11" s="1">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1298</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>6</v>
+      </c>
+      <c r="R11" s="4">
+        <v>219</v>
+      </c>
+      <c r="S11" s="1">
+        <v>111</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -979,8 +1216,29 @@
       <c r="J12" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1294</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>57.33</v>
+      </c>
+      <c r="R12" s="4">
+        <v>400</v>
+      </c>
+      <c r="S12" s="1">
+        <v>86</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1011,8 +1269,29 @@
       <c r="J13" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1293</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>32</v>
+      </c>
+      <c r="R13" s="4">
+        <v>252</v>
+      </c>
+      <c r="S13" s="1">
+        <v>72</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1043,8 +1322,29 @@
       <c r="J14" s="1">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="12">
+        <v>1290</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>13</v>
+      </c>
+      <c r="R14" s="13">
+        <v>255</v>
+      </c>
+      <c r="S14" s="12">
+        <v>100</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1075,8 +1375,29 @@
       <c r="J15" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1291</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>32.67</v>
+      </c>
+      <c r="R15" s="5">
+        <v>195</v>
+      </c>
+      <c r="S15" s="3">
+        <v>40</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1429,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1140,7 +1461,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1493,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1525,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1233,6 +1554,98 @@
         <v>83</v>
       </c>
       <c r="J20" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1303</v>
+      </c>
+      <c r="P24" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>228</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1230</v>
+      </c>
+      <c r="S24" s="1">
+        <v>82</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1302</v>
+      </c>
+      <c r="P25" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>110.41</v>
+      </c>
+      <c r="R25" s="4">
+        <v>750</v>
+      </c>
+      <c r="S25" s="1">
+        <v>70</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1295</v>
+      </c>
+      <c r="P26" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>135.66999999999999</v>
+      </c>
+      <c r="R26" s="5">
+        <v>841</v>
+      </c>
+      <c r="S26" s="3">
+        <v>83</v>
+      </c>
+      <c r="T26" s="3">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -1245,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105D377E-4E50-8E4A-8F9A-9968D798C7C3}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
